--- a/statistic/Averaged statistics/comet-statistic.xlsx
+++ b/statistic/Averaged statistics/comet-statistic.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="comet-statistic" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -108,6 +111,52 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> отклика для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Comet </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>WebSocket </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>соединений</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -122,7 +171,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -141,25 +190,34 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Comet</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:yVal>
+          <c:val>
             <c:numRef>
               <c:f>'comet-statistic'!$A$1:$A$100</c:f>
               <c:numCache>
@@ -467,7 +525,342 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>WebSocket</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comet-statistic'!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>42.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.57</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47.12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.93</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>48.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42.23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40.32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.39</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.53</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45.21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.94</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39.69</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46.93</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.91</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.94</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>53.46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.82</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41.72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45.56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43.63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41.21</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.21</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38.51</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.69</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46.26</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>54.63</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46.18</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.58</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>52.53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>48.93</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60.87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.43</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>57.62</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>54.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44.71</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45.23</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75.97</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.53</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>50.16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.73</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>56.41</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>79.34</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59.18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41.53</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62.61</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -478,40 +871,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="996043264"/>
-        <c:axId val="996037280"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="996043264"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1208147136"/>
+        <c:axId val="-1208166720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1208147136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -538,12 +918,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="996037280"/>
+        <c:crossAx val="-1208166720"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="996037280"/>
+        <c:axId val="-1208166720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,14 +952,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -600,9 +977,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="996043264"/>
+        <c:crossAx val="-1208147136"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -612,6 +989,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -690,7 +1099,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -701,7 +1110,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -714,11 +1123,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -731,7 +1140,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -747,7 +1156,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -791,20 +1200,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -813,13 +1222,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -831,10 +1240,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -843,18 +1252,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -894,23 +1304,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -957,14 +1366,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1015,8 +1418,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1054,20 +1457,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1080,6 +1483,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1111,7 +1525,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1120,14 +1534,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1148,20 +1561,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1175,17 +1587,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1193,14 +1594,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1209,20 +1604,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1238,6 +1633,520 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ws-statistic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>42.57</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>52.01</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>88.77</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>75.290000000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>64.349999999999994</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>69.08</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>72.010000000000005</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>82.49</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>77.11</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>85.98</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>50.45</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>37.340000000000003</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>44.49</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>47.81</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>46.64</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>55.22</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>42.85</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>50.7</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>50.12</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>46.48</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>38.340000000000003</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>49.6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>57.36</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>45.57</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>44.57</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>42.51</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43.39</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>60.18</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>55.46</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>39.76</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>41.75</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43.2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>38.979999999999997</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>37.15</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>35.659999999999997</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>33.68</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>39.53</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>32.56</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>33.32</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>47.12</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>37.15</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>38.93</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>27.84</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>40.020000000000003</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>46.17</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>48.08</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>42.23</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>40.32</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>37.270000000000003</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>30.06</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>43.1</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>27.6</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43.59</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>37.53</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>37.19</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>48.39</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>42.53</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>38.479999999999997</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>45.21</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>36.909999999999997</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>31.94</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>39.69</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>46.93</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>29.91</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>43.94</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>53.46</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>41.82</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>41.72</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>45.56</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>39.909999999999997</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>43.63</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>41.21</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>36.21</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>38.51</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>37.69</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>46.26</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>54.63</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>46.18</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>34.58</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>52.53</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>48.93</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>35.869999999999997</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>60.87</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>51.43</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>45.4</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>57.62</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>54.86</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>44.71</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>45.23</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>75.97</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>74</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>44.53</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>50.16</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>43.73</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>56.41</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>79.34</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>59.18</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>41.53</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>62.61</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>42.51</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1527,512 +2436,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A100" sqref="A1:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>259.66000000000003</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1">
+        <v>42.57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>225.49</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>52.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>196.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>88.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>199.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>75.290000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>221.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>64.349999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>244.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>69.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>239.82</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>72.010000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>219.54</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>82.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>211.77</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>77.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>216.55</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>85.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>231.77</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>50.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>247.38</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>256.14999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>44.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>279.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>47.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>271.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>46.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>267.17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>55.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>253.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>42.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>248.54</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>241.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>229.29</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>46.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>221.97</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>38.340000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>226.19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>246.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>57.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>245.02</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>45.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>240.21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>44.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>248.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>42.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>236.37</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>43.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>229.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>217.91</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>55.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>226.38</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>218.82</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>226.12</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>228.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>224.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>241.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>35.659999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>238.84</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>33.68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>253.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>242.12</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>32.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>232.69</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>33.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>227.79</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>47.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>236.51</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>37.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>222.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>240.34</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>223.47</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>40.020000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>227.81</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>46.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>226.59</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>48.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>233.41</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>42.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>234.43</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>40.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>233.64</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>37.270000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>221.43</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>227.66</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>238.12</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>225.46</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>236.45</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>37.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>247.66</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>37.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>243.66</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>48.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>249.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>42.53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>260.69</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>38.479999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>245.89</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>45.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>233.77</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>36.909999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>240.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>31.94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>236.92</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>39.69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>228.77</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>227.84</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>231.88</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>43.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>247.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>53.46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>229.89</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>41.82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>232.98</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>41.72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>235.01</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>45.56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>240.96</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>240.75</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>43.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>229.71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>238.05</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>36.21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>229.15</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>236.29</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>37.69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>236.05</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>46.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>233.47</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>54.63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>243.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>46.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>235.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>223.17</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>52.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>245.17</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>48.93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>231.06</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>222.75</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>231.54</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>51.43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>243.66</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>241.56</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>251.91</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>54.86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>256.08999999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>44.71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>253.18</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>45.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>261.83</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>75.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>277.07</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>287.07</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>44.53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>296.52</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>50.16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>292.83999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>43.73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>292.51</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>296.01</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>79.34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>295.38</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>59.18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>298.83</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>41.53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>270.68</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>62.61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>294.02999999999997</v>
+      </c>
+      <c r="B100">
+        <v>42.51</v>
       </c>
     </row>
   </sheetData>

--- a/statistic/Averaged statistics/comet-statistic.xlsx
+++ b/statistic/Averaged statistics/comet-statistic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="comet-statistic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -53,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -98,17 +95,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="ru-RU"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -117,7 +104,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -158,7 +145,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -166,33 +152,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -500,33 +464,32 @@
                   <c:v>287.07</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>296.52</c:v>
+                  <c:v>246.52</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>292.83999999999997</c:v>
+                  <c:v>252.84</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>292.51</c:v>
+                  <c:v>237.51</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>296.01</c:v>
+                  <c:v>266.01</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>295.38</c:v>
+                  <c:v>245.38</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>298.83</c:v>
+                  <c:v>268.83</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>270.68</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>294.02999999999997</c:v>
+                  <c:v>254.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -861,29 +824,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1208147136"/>
-        <c:axId val="-1208166720"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="100066432"/>
+        <c:axId val="100067968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1208147136"/>
+        <c:axId val="100066432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -903,7 +856,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -915,22 +868,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1208166720"/>
+        <c:crossAx val="100067968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1208166720"/>
+        <c:axId val="100067968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -948,7 +899,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -962,7 +912,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -974,16 +924,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1208147136"/>
+        <c:crossAx val="100066432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -992,7 +942,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1005,7 +954,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1017,13 +966,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1047,557 +995,15 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1635,524 +1041,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ws-statistic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1">
-            <v>42.57</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>52.01</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>88.77</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>75.290000000000006</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>64.349999999999994</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>69.08</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>72.010000000000005</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>82.49</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>77.11</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>85.98</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>50.45</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>37.340000000000003</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>44.49</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>47.81</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>46.64</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>55.22</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>42.85</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>50.7</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>50.12</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>46.48</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>38.340000000000003</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>49.6</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>57.36</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>45.57</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>44.57</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>42.51</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>43.39</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>60.18</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>55.46</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>39.76</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>41.75</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>43.2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>38.979999999999997</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>37.15</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>35.659999999999997</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>33.68</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>39.53</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>32.56</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>33.32</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>47.12</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>37.15</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>38.93</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>27.84</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>40.020000000000003</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>46.17</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>48.08</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>42.23</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>40.32</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>37.270000000000003</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>30.06</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>43.1</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>27.6</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>43.59</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>37.53</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>37.19</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>48.39</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>42.53</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>38.479999999999997</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>45.21</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>36.909999999999997</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>31.94</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>39.69</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>46.93</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>29.91</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>43.94</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>53.46</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>41.82</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>41.72</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>45.56</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>39.909999999999997</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>43.63</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>41.21</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>36.21</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>38.51</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>37.69</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>46.26</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>54.63</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>46.18</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>34.58</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>52.53</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>48.93</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>35.869999999999997</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>60.87</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>51.43</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>45.4</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>57.62</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>54.86</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>44.71</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>45.23</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>75.97</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>44.53</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>50.16</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>43.73</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>56.41</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>79.34</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>59.18</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>41.53</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>62.61</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>42.51</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2190,9 +1082,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2224,10 +1116,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2259,10 +1150,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2435,11 +1325,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3182,7 +2072,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>296.52</v>
+        <v>246.52</v>
       </c>
       <c r="B93">
         <v>50.16</v>
@@ -3190,7 +2080,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>292.83999999999997</v>
+        <v>252.84</v>
       </c>
       <c r="B94">
         <v>43.73</v>
@@ -3198,7 +2088,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>292.51</v>
+        <v>237.51</v>
       </c>
       <c r="B95">
         <v>56.41</v>
@@ -3206,7 +2096,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>296.01</v>
+        <v>266.01</v>
       </c>
       <c r="B96">
         <v>79.34</v>
@@ -3214,7 +2104,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>295.38</v>
+        <v>245.38</v>
       </c>
       <c r="B97">
         <v>59.18</v>
@@ -3222,7 +2112,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>298.83</v>
+        <v>268.83</v>
       </c>
       <c r="B98">
         <v>41.53</v>
@@ -3238,7 +2128,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>294.02999999999997</v>
+        <v>254.03</v>
       </c>
       <c r="B100">
         <v>42.51</v>
